--- a/data/trans_orig/P6902-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FEA4547-67AB-4A93-8414-6CE0709DC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25BF308E-05F7-4B51-89B8-5426EDF72C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B8E203C-602B-4CB9-9717-68B4053FF446}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8687F46C-8CDB-48C4-8950-32BCDC35D3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>26,33%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,67%</t>
   </si>
   <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
   </si>
   <si>
     <t>73,53%</t>
   </si>
   <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>41,34%</t>
   </si>
   <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
   </si>
   <si>
     <t>49,39%</t>
   </si>
   <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
   </si>
   <si>
     <t>43,7%</t>
   </si>
   <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
   </si>
   <si>
     <t>58,66%</t>
   </si>
   <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>50,61%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
   </si>
   <si>
     <t>56,3%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,751 +197,751 @@
     <t>77,12%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>69,33%</t>
   </si>
   <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>73,51%</t>
   </si>
   <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>30,67%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
   </si>
   <si>
     <t>43,42%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>44,12%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
   </si>
   <si>
     <t>57,5%</t>
   </si>
   <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>42,5%</t>
   </si>
   <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
     <t>36,36%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7AD68C-0B2A-4D2F-B494-6A601F2CAEFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6916E217-0B5D-4E16-ACA3-12B1668AC8EF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9231169E-5C4E-469D-BA1F-552FC295AC39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B3EDF0-D453-43E8-AA4C-8D6E03BF20B6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2723,13 +2723,13 @@
         <v>276558</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2744,13 @@
         <v>171775</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -2759,13 +2759,13 @@
         <v>91642</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>249</v>
@@ -2774,13 +2774,13 @@
         <v>263416</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D81287-6AB5-4D0C-8FCF-16902CC63E8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217BB830-FE45-4239-9A2F-0BB21B082750}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2979,13 @@
         <v>23174</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2994,13 +2994,13 @@
         <v>4885</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -3009,13 +3009,13 @@
         <v>28059</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3030,13 @@
         <v>32407</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3045,13 +3045,13 @@
         <v>13139</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -3060,13 +3060,13 @@
         <v>45546</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3134,13 @@
         <v>83831</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -3149,13 +3149,13 @@
         <v>73186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>148</v>
@@ -3164,13 +3164,13 @@
         <v>157016</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3185,13 @@
         <v>145551</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -3200,13 +3200,13 @@
         <v>51379</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>188</v>
@@ -3215,13 +3215,13 @@
         <v>196931</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3289,13 @@
         <v>43480</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3304,13 +3304,13 @@
         <v>52963</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -3319,13 +3319,13 @@
         <v>96443</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3340,13 @@
         <v>20048</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -3355,13 +3355,13 @@
         <v>20745</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -3370,13 +3370,13 @@
         <v>40793</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3444,13 @@
         <v>150484</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -3459,13 +3459,13 @@
         <v>131034</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -3474,13 +3474,13 @@
         <v>281518</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3495,13 @@
         <v>198007</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -3510,13 +3510,13 @@
         <v>85264</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>267</v>
@@ -3525,13 +3525,13 @@
         <v>283270</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37506EE2-50FF-4482-BBB5-695BD7FFBD4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF581B6-7312-4D38-8089-5CE93DD881BC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3730,13 @@
         <v>15457</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3745,13 +3745,13 @@
         <v>12884</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -3760,13 +3760,13 @@
         <v>28341</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3781,13 @@
         <v>15023</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3796,13 +3796,13 @@
         <v>16110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -3811,13 +3811,13 @@
         <v>31133</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3885,13 @@
         <v>140894</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>183</v>
@@ -3900,13 +3900,13 @@
         <v>135675</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -3915,13 +3915,13 @@
         <v>276569</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3936,13 @@
         <v>108456</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -3951,13 +3951,13 @@
         <v>98286</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>233</v>
@@ -3966,13 +3966,13 @@
         <v>206742</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6902-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25BF308E-05F7-4B51-89B8-5426EDF72C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0A361B-9C92-47C9-BAC7-7794D7D4632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8687F46C-8CDB-48C4-8950-32BCDC35D3C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7478ED1A-A1D4-4838-A230-4EBDBF8F82B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>26,33%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,67%</t>
   </si>
   <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
   </si>
   <si>
     <t>73,53%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,624 +140,636 @@
     <t>41,34%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
   </si>
   <si>
     <t>49,39%</t>
   </si>
   <si>
-    <t>39,84%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
   </si>
   <si>
     <t>59,07%</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
   </si>
   <si>
     <t>48,78%</t>
   </si>
   <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
     <t>50,71%</t>
   </si>
   <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>49,29%</t>
   </si>
   <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
     <t>32,12%</t>
   </si>
   <si>
@@ -785,9 +797,6 @@
     <t>56,5%</t>
   </si>
   <si>
-    <t>49,42%</t>
-  </si>
-  <si>
     <t>62,83%</t>
   </si>
   <si>
@@ -815,9 +824,6 @@
     <t>37,17%</t>
   </si>
   <si>
-    <t>50,58%</t>
-  </si>
-  <si>
     <t>42,01%</t>
   </si>
   <si>
@@ -848,9 +854,6 @@
     <t>87,82%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
     <t>92,49%</t>
   </si>
   <si>
@@ -876,9 +879,6 @@
   </si>
   <si>
     <t>7,51%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
   </si>
   <si>
     <t>12,5%</t>
@@ -1353,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6916E217-0B5D-4E16-ACA3-12B1668AC8EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DA5101-166C-47A2-8962-BCAC9E34CCBE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1683,13 +1683,13 @@
         <v>168309</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -1698,13 +1698,13 @@
         <v>60012</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>226</v>
@@ -1713,13 +1713,13 @@
         <v>228321</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,7 +1775,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1787,13 +1787,13 @@
         <v>57127</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -1802,13 +1802,13 @@
         <v>44357</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -1817,13 +1817,13 @@
         <v>101484</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,13 +1838,13 @@
         <v>16948</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -1853,13 +1853,13 @@
         <v>19626</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -1868,13 +1868,13 @@
         <v>36574</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1942,13 @@
         <v>205061</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -1957,13 +1957,13 @@
         <v>113018</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>302</v>
@@ -1972,13 +1972,13 @@
         <v>318079</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +1993,13 @@
         <v>267244</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -2008,13 +2008,13 @@
         <v>107103</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -2023,13 +2023,13 @@
         <v>374348</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,7 +2085,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B3EDF0-D453-43E8-AA4C-8D6E03BF20B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A8ED47-5965-4733-9BDB-359FA7B46E9D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2121,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2228,13 +2228,13 @@
         <v>19335</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -2243,13 +2243,13 @@
         <v>19438</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -2258,13 +2258,13 @@
         <v>38773</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2279,13 @@
         <v>36983</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -2294,13 +2294,13 @@
         <v>18497</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -2309,13 +2309,13 @@
         <v>55480</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2383,13 @@
         <v>100057</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -2398,13 +2398,13 @@
         <v>71100</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
@@ -2413,13 +2413,13 @@
         <v>171158</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2434,13 @@
         <v>121682</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -2449,13 +2449,13 @@
         <v>60472</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>172</v>
@@ -2464,13 +2464,13 @@
         <v>182153</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,7 +2526,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2538,13 +2538,13 @@
         <v>32979</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -2553,13 +2553,13 @@
         <v>33648</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -2568,13 +2568,13 @@
         <v>66627</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2589,13 @@
         <v>13110</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2604,13 +2604,13 @@
         <v>12673</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -2619,13 +2619,13 @@
         <v>25783</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2693,13 @@
         <v>152371</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -2708,13 +2708,13 @@
         <v>124186</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -2723,13 +2723,13 @@
         <v>276558</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2744,13 @@
         <v>171775</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -2759,13 +2759,13 @@
         <v>91642</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>249</v>
@@ -2774,7 +2774,7 @@
         <v>263416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>157</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217BB830-FE45-4239-9A2F-0BB21B082750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06404B61-0DA4-429B-9383-7417693D5E15}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3152,10 +3152,10 @@
         <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>148</v>
@@ -3164,13 +3164,13 @@
         <v>157016</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3185,13 @@
         <v>145551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -3200,13 +3200,13 @@
         <v>51379</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>188</v>
@@ -3215,13 +3215,13 @@
         <v>196931</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3277,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3289,13 +3289,13 @@
         <v>43480</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3304,13 +3304,13 @@
         <v>52963</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -3319,13 +3319,13 @@
         <v>96443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3340,13 @@
         <v>20048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -3355,13 +3355,13 @@
         <v>20745</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -3370,13 +3370,13 @@
         <v>40793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3444,13 @@
         <v>150484</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -3459,13 +3459,13 @@
         <v>131034</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -3474,13 +3474,13 @@
         <v>281518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3495,13 @@
         <v>198007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -3510,13 +3510,13 @@
         <v>85264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>267</v>
@@ -3525,13 +3525,13 @@
         <v>283270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,7 +3587,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF581B6-7312-4D38-8089-5CE93DD881BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F607F57-3CCF-4A1E-B2D4-EC4C32E35827}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3730,13 @@
         <v>15457</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -3745,13 +3745,13 @@
         <v>12884</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -3760,13 +3760,13 @@
         <v>28341</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3781,13 @@
         <v>15023</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3796,13 +3796,13 @@
         <v>16110</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -3811,13 +3811,13 @@
         <v>31133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3885,13 @@
         <v>140894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>183</v>
@@ -3900,13 +3900,13 @@
         <v>135675</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -3915,13 +3915,13 @@
         <v>276569</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3936,13 @@
         <v>108456</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -3951,13 +3951,13 @@
         <v>98286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>233</v>
@@ -3966,13 +3966,13 @@
         <v>206742</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,7 +4028,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4040,13 +4040,13 @@
         <v>62526</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -4055,13 +4055,13 @@
         <v>86152</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -4070,13 +4070,13 @@
         <v>148677</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4091,13 @@
         <v>9291</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -4106,13 +4106,13 @@
         <v>11944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6902-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0A361B-9C92-47C9-BAC7-7794D7D4632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C017E0-70EA-4864-B934-5F00B29D768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7478ED1A-A1D4-4838-A230-4EBDBF8F82B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71D8B994-B2E1-480D-B714-ABE6161246C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>26,33%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,67%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>73,53%</t>
   </si>
   <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,55 @@
     <t>41,34%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
   </si>
   <si>
     <t>49,39%</t>
   </si>
   <si>
-    <t>40,74%</t>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
   </si>
   <si>
     <t>58,66%</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
   </si>
   <si>
     <t>50,61%</t>
   </si>
   <si>
-    <t>59,26%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
   </si>
   <si>
     <t>56,3%</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -191,109 +197,109 @@
     <t>77,12%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>69,33%</t>
   </si>
   <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>73,51%</t>
   </si>
   <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>30,67%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
   </si>
   <si>
     <t>43,42%</t>
   </si>
   <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
   </si>
   <si>
     <t>45,94%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>56,58%</t>
   </si>
   <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
   </si>
   <si>
     <t>54,06%</t>
   </si>
   <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,436 +311,430 @@
     <t>34,33%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
   </si>
   <si>
     <t>51,24%</t>
   </si>
   <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>41,14%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
   </si>
   <si>
     <t>65,67%</t>
   </si>
   <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>48,76%</t>
   </si>
   <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>58,86%</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
   </si>
   <si>
     <t>45,12%</t>
   </si>
   <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
   </si>
   <si>
     <t>54,04%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>48,44%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>54,88%</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
   </si>
   <si>
     <t>45,96%</t>
   </si>
   <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>51,56%</t>
   </si>
   <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>72,64%</t>
   </si>
   <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>72,1%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
   </si>
   <si>
     <t>47,01%</t>
   </si>
   <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
   </si>
   <si>
     <t>57,54%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
   </si>
   <si>
     <t>51,22%</t>
   </si>
   <si>
-    <t>46,17%</t>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>55,15%</t>
   </si>
   <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
   </si>
   <si>
     <t>44,85%</t>
   </si>
   <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
     <t>28,14%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>43,18%</t>
   </si>
   <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
   </si>
   <si>
     <t>56,82%</t>
   </si>
   <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
   </si>
   <si>
     <t>50,16%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
@@ -743,205 +743,205 @@
     <t>50,71%</t>
   </si>
   <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
   </si>
   <si>
     <t>47,65%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>49,29%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>52,35%</t>
   </si>
   <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>62,83%</t>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
   </si>
   <si>
     <t>57,99%</t>
   </si>
   <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
   </si>
   <si>
     <t>57,22%</t>
   </si>
   <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>37,17%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
   </si>
   <si>
     <t>42,01%</t>
   </si>
   <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
+    <t>35,99%</t>
   </si>
   <si>
     <t>42,78%</t>
   </si>
   <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
+    <t>37,87%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>92,49%</t>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>7,51%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>62,24%</t>
   </si>
   <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
   </si>
   <si>
     <t>65,01%</t>
   </si>
   <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>63,64%</t>
   </si>
   <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
   <si>
     <t>37,76%</t>
   </si>
   <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
   </si>
   <si>
     <t>34,99%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
   </si>
   <si>
     <t>36,36%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DA5101-166C-47A2-8962-BCAC9E34CCBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9555D25B-0B0B-4EF3-B234-10B34CDC560F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1683,13 +1683,13 @@
         <v>168309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -1698,13 +1698,13 @@
         <v>60012</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>226</v>
@@ -1713,13 +1713,13 @@
         <v>228321</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,7 +1775,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1787,13 +1787,13 @@
         <v>57127</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -1802,13 +1802,13 @@
         <v>44357</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -1817,13 +1817,13 @@
         <v>101484</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,13 +1838,13 @@
         <v>16948</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -1853,13 +1853,13 @@
         <v>19626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -1868,13 +1868,13 @@
         <v>36574</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1942,13 @@
         <v>205061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -1957,13 +1957,13 @@
         <v>113018</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>302</v>
@@ -1972,13 +1972,13 @@
         <v>318079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +1993,13 @@
         <v>267244</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -2008,13 +2008,13 @@
         <v>107103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -2023,13 +2023,13 @@
         <v>374348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,7 +2085,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A8ED47-5965-4733-9BDB-359FA7B46E9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54386EC-4F0B-4107-9905-70BE154B1A77}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2121,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2228,13 +2228,13 @@
         <v>19335</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -2243,13 +2243,13 @@
         <v>19438</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -2258,13 +2258,13 @@
         <v>38773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2279,13 @@
         <v>36983</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -2294,13 +2294,13 @@
         <v>18497</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -2309,13 +2309,13 @@
         <v>55480</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2383,13 @@
         <v>100057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -2398,13 +2398,13 @@
         <v>71100</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
@@ -2413,13 +2413,13 @@
         <v>171158</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2434,13 @@
         <v>121682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -2449,13 +2449,13 @@
         <v>60472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>172</v>
@@ -2464,13 +2464,13 @@
         <v>182153</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,7 +2526,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2538,13 +2538,13 @@
         <v>32979</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -2553,13 +2553,13 @@
         <v>33648</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -2568,13 +2568,13 @@
         <v>66627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2589,13 @@
         <v>13110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2604,13 +2604,13 @@
         <v>12673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -2619,13 +2619,13 @@
         <v>25783</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2693,13 @@
         <v>152371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -2708,13 +2708,13 @@
         <v>124186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -2723,13 +2723,13 @@
         <v>276558</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2744,13 @@
         <v>171775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -2759,13 +2759,13 @@
         <v>91642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>249</v>
@@ -2774,13 +2774,13 @@
         <v>263416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,7 +2836,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06404B61-0DA4-429B-9383-7417693D5E15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FED9A9-8BBF-40EB-BFD0-D6DAC50FA10B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2979,13 @@
         <v>23174</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2994,13 +2994,13 @@
         <v>4885</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -3009,13 +3009,13 @@
         <v>28059</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3030,13 @@
         <v>32407</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3045,13 +3045,13 @@
         <v>13139</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -3060,13 +3060,13 @@
         <v>45546</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3134,13 @@
         <v>83831</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -3149,13 +3149,13 @@
         <v>73186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>148</v>
@@ -3164,13 +3164,13 @@
         <v>157016</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3185,13 @@
         <v>145551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -3200,13 +3200,13 @@
         <v>51379</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>188</v>
@@ -3215,10 +3215,10 @@
         <v>196931</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>195</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F607F57-3CCF-4A1E-B2D4-EC4C32E35827}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EF2E37-D0D4-4DAF-A106-E6FA4993B553}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3745,13 +3745,13 @@
         <v>12884</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -3760,13 +3760,13 @@
         <v>28341</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3781,13 @@
         <v>15023</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3796,13 +3796,13 @@
         <v>16110</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -3811,13 +3811,13 @@
         <v>31133</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3885,13 @@
         <v>140894</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>183</v>
@@ -3900,13 +3900,13 @@
         <v>135675</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -3915,13 +3915,13 @@
         <v>276569</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3936,13 @@
         <v>108456</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -3957,7 +3957,7 @@
         <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>233</v>
@@ -3966,13 +3966,13 @@
         <v>206742</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,7 +4028,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4040,13 +4040,13 @@
         <v>62526</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -4055,13 +4055,13 @@
         <v>86152</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -4070,13 +4070,13 @@
         <v>148677</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4091,13 @@
         <v>9291</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -4106,13 +4106,13 @@
         <v>11944</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6902-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C017E0-70EA-4864-B934-5F00B29D768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{185B78F8-E6CE-48C2-81CA-8E0FFC3F9139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71D8B994-B2E1-480D-B714-ABE6161246C7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{91D1CD2F-53F6-4CDE-9A63-F00823895CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -740,208 +740,214 @@
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
   </si>
   <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9555D25B-0B0B-4EF3-B234-10B34CDC560F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CFC548-D79A-4256-AAD7-1AB4DABED281}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54386EC-4F0B-4107-9905-70BE154B1A77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B806BAB4-B199-47DC-8C41-EDCC61C49469}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FED9A9-8BBF-40EB-BFD0-D6DAC50FA10B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4265F34-89E3-44E9-BFF8-922ACF4B75CB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3606,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EF2E37-D0D4-4DAF-A106-E6FA4993B553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B8BCF7-5E38-4B75-8B9C-2A720D89A42F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3727,7 +3733,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>15457</v>
+        <v>14718</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3742,31 +3748,31 @@
         <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>12884</v>
+        <v>11354</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>28341</v>
+        <v>26072</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,46 +3784,46 @@
         <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>15023</v>
+        <v>14496</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>16110</v>
+        <v>13632</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>31133</v>
+        <v>28128</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,7 +3835,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="7">
-        <v>30480</v>
+        <v>29214</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3850,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="7">
-        <v>28994</v>
+        <v>24986</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3859,7 +3865,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>59474</v>
+        <v>54200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3882,46 +3888,46 @@
         <v>130</v>
       </c>
       <c r="D7" s="7">
-        <v>140894</v>
+        <v>133548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>183</v>
       </c>
       <c r="I7" s="7">
-        <v>135675</v>
+        <v>123394</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
       </c>
       <c r="N7" s="7">
-        <v>276569</v>
+        <v>256941</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,22 +3939,22 @@
         <v>109</v>
       </c>
       <c r="D8" s="7">
-        <v>108456</v>
+        <v>106032</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
       </c>
       <c r="I8" s="7">
-        <v>98286</v>
+        <v>114974</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -3957,22 +3963,22 @@
         <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>233</v>
       </c>
       <c r="N8" s="7">
-        <v>206742</v>
+        <v>221007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +3990,7 @@
         <v>239</v>
       </c>
       <c r="D9" s="7">
-        <v>249350</v>
+        <v>239580</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3999,7 +4005,7 @@
         <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>233961</v>
+        <v>238368</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4014,7 +4020,7 @@
         <v>546</v>
       </c>
       <c r="N9" s="7">
-        <v>483311</v>
+        <v>477948</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4037,46 +4043,46 @@
         <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>62526</v>
+        <v>60515</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
       </c>
       <c r="I10" s="7">
-        <v>86152</v>
+        <v>79575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
       </c>
       <c r="N10" s="7">
-        <v>148677</v>
+        <v>140089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,46 +4094,46 @@
         <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>9291</v>
+        <v>9011</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>11944</v>
+        <v>11120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>21236</v>
+        <v>20132</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,7 +4145,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>71817</v>
+        <v>69526</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4154,7 +4160,7 @@
         <v>131</v>
       </c>
       <c r="I12" s="7">
-        <v>98096</v>
+        <v>90695</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4169,7 +4175,7 @@
         <v>194</v>
       </c>
       <c r="N12" s="7">
-        <v>169913</v>
+        <v>160221</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4192,46 +4198,46 @@
         <v>201</v>
       </c>
       <c r="D13" s="7">
-        <v>218877</v>
+        <v>208781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>313</v>
       </c>
       <c r="I13" s="7">
-        <v>234711</v>
+        <v>214322</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>514</v>
       </c>
       <c r="N13" s="7">
-        <v>453587</v>
+        <v>423103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,46 +4249,46 @@
         <v>136</v>
       </c>
       <c r="D14" s="7">
-        <v>132769</v>
+        <v>129539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>160</v>
       </c>
       <c r="I14" s="7">
-        <v>126341</v>
+        <v>139727</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>296</v>
       </c>
       <c r="N14" s="7">
-        <v>259111</v>
+        <v>269266</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4300,7 @@
         <v>337</v>
       </c>
       <c r="D15" s="7">
-        <v>351646</v>
+        <v>338320</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4309,7 +4315,7 @@
         <v>473</v>
       </c>
       <c r="I15" s="7">
-        <v>361052</v>
+        <v>354049</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4324,7 +4330,7 @@
         <v>810</v>
       </c>
       <c r="N15" s="7">
-        <v>712698</v>
+        <v>692369</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
